--- a/war/config/taboo/wordlist3.xlsx
+++ b/war/config/taboo/wordlist3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="1052">
   <si>
     <t>las afueras</t>
   </si>
@@ -3127,12 +3127,6 @@
     <t>áreas de la ciudad</t>
   </si>
   <si>
-    <t>primer</t>
-  </si>
-  <si>
-    <t>tercer</t>
-  </si>
-  <si>
     <t>barrer el suelo</t>
   </si>
   <si>
@@ -3157,64 +3151,25 @@
     <t>sugerir</t>
   </si>
   <si>
-    <t>mío</t>
-  </si>
-  <si>
-    <t>mía</t>
-  </si>
-  <si>
-    <t>míos</t>
-  </si>
-  <si>
-    <t>mías</t>
-  </si>
-  <si>
-    <t>tuyo</t>
-  </si>
-  <si>
-    <t>tuya</t>
-  </si>
-  <si>
-    <t>tuyos</t>
-  </si>
-  <si>
-    <t>tuyas</t>
-  </si>
-  <si>
-    <t>suyo</t>
-  </si>
-  <si>
-    <t>suya</t>
-  </si>
-  <si>
-    <t>suyos</t>
-  </si>
-  <si>
-    <t>suyas</t>
-  </si>
-  <si>
-    <t>nuestro</t>
-  </si>
-  <si>
-    <t>nuestra</t>
-  </si>
-  <si>
-    <t>nuestros</t>
-  </si>
-  <si>
-    <t>nuestras</t>
-  </si>
-  <si>
-    <t>vuestro</t>
-  </si>
-  <si>
-    <t>vuestra</t>
-  </si>
-  <si>
-    <t>vuestros</t>
-  </si>
-  <si>
-    <t>vuestras</t>
+    <t>primer(o)</t>
+  </si>
+  <si>
+    <t>tercer(o)</t>
+  </si>
+  <si>
+    <t>mío/mía/míos/mías</t>
+  </si>
+  <si>
+    <t>tuyo/tuya/tuyos/tuyas</t>
+  </si>
+  <si>
+    <t>nuestro/nuestra/nuestros/nuestras</t>
+  </si>
+  <si>
+    <t>vuestro/vuestra/vuestros/vuestras</t>
+  </si>
+  <si>
+    <t>suyo/suya/suyos/suyas</t>
   </si>
 </sst>
 </file>
@@ -4037,15 +3992,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C551"/>
+  <dimension ref="A1:C536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="136.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4417,7 +4372,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -4439,7 +4394,7 @@
         <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -4560,7 +4515,7 @@
         <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -4571,7 +4526,7 @@
         <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C48">
         <v>10</v>
@@ -4736,7 +4691,7 @@
         <v>1032</v>
       </c>
       <c r="B63" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -4747,7 +4702,7 @@
         <v>1033</v>
       </c>
       <c r="B64" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -4769,7 +4724,7 @@
         <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C66">
         <v>10</v>
@@ -5176,7 +5131,7 @@
         <v>186</v>
       </c>
       <c r="B103" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -5220,7 +5175,7 @@
         <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -5242,7 +5197,7 @@
         <v>195</v>
       </c>
       <c r="B109" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C109">
         <v>10</v>
@@ -5261,7 +5216,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B111" t="s">
         <v>1048</v>
@@ -5272,10 +5227,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C112">
         <v>10</v>
@@ -5283,10 +5238,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B113" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C113">
         <v>10</v>
@@ -5297,7 +5252,7 @@
         <v>197</v>
       </c>
       <c r="B114" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C114">
         <v>10</v>
@@ -5305,10 +5260,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>1034</v>
       </c>
       <c r="B115" t="s">
-        <v>1052</v>
+        <v>200</v>
       </c>
       <c r="C115">
         <v>10</v>
@@ -5316,10 +5271,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>1035</v>
       </c>
       <c r="B116" t="s">
-        <v>1053</v>
+        <v>201</v>
       </c>
       <c r="C116">
         <v>10</v>
@@ -5327,10 +5282,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B117" t="s">
-        <v>1054</v>
+        <v>202</v>
       </c>
       <c r="C117">
         <v>10</v>
@@ -5338,10 +5293,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B118" t="s">
-        <v>1055</v>
+        <v>204</v>
       </c>
       <c r="C118">
         <v>10</v>
@@ -5349,10 +5304,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B119" t="s">
-        <v>1056</v>
+        <v>206</v>
       </c>
       <c r="C119">
         <v>10</v>
@@ -5360,10 +5315,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B120" t="s">
-        <v>1057</v>
+        <v>208</v>
       </c>
       <c r="C120">
         <v>10</v>
@@ -5371,10 +5326,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B121" t="s">
-        <v>1058</v>
+        <v>210</v>
       </c>
       <c r="C121">
         <v>10</v>
@@ -5382,10 +5337,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B122" t="s">
-        <v>1059</v>
+        <v>212</v>
       </c>
       <c r="C122">
         <v>10</v>
@@ -5393,175 +5348,175 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B123" t="s">
-        <v>1060</v>
+        <v>214</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B124" t="s">
-        <v>1061</v>
+        <v>216</v>
       </c>
       <c r="C124">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="B125" t="s">
-        <v>1062</v>
+        <v>218</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B126" t="s">
-        <v>1063</v>
+        <v>220</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B127" t="s">
-        <v>1064</v>
+        <v>222</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="B128" t="s">
-        <v>1065</v>
+        <v>224</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="B129" t="s">
-        <v>1066</v>
+        <v>226</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>1034</v>
+        <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="C130">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>1035</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="C134">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="C137">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="C138">
         <v>11</v>
@@ -5569,10 +5524,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="C139">
         <v>11</v>
@@ -5580,10 +5535,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="C140">
         <v>11</v>
@@ -5591,10 +5546,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="C141">
         <v>11</v>
@@ -5602,10 +5557,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="C142">
         <v>11</v>
@@ -5613,10 +5568,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="C143">
         <v>11</v>
@@ -5624,10 +5579,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C144">
         <v>11</v>
@@ -5635,10 +5590,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="B145" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="C145">
         <v>11</v>
@@ -5646,10 +5601,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="C146">
         <v>11</v>
@@ -5657,10 +5612,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C147">
         <v>11</v>
@@ -5668,10 +5623,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="C148">
         <v>11</v>
@@ -5679,10 +5634,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="C149">
         <v>11</v>
@@ -5690,10 +5645,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="B150" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C150">
         <v>11</v>
@@ -5701,10 +5656,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="C151">
         <v>11</v>
@@ -5712,10 +5667,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="C152">
         <v>11</v>
@@ -5723,10 +5678,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="B153" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="C153">
         <v>11</v>
@@ -5734,10 +5689,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="B154" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="C154">
         <v>11</v>
@@ -5745,10 +5700,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B155" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C155">
         <v>11</v>
@@ -5756,10 +5711,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="C156">
         <v>11</v>
@@ -5767,10 +5722,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="B157" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C157">
         <v>11</v>
@@ -5778,10 +5733,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="B158" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="C158">
         <v>11</v>
@@ -5789,10 +5744,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="C159">
         <v>11</v>
@@ -5800,10 +5755,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="B160" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="C160">
         <v>11</v>
@@ -5811,10 +5766,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="B161" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="C161">
         <v>11</v>
@@ -5822,10 +5777,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="B162" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="C162">
         <v>11</v>
@@ -5833,10 +5788,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="B163" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="C163">
         <v>11</v>
@@ -5844,10 +5799,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="B164" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="C164">
         <v>11</v>
@@ -5855,10 +5810,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="C165">
         <v>11</v>
@@ -5866,10 +5821,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="B166" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="C166">
         <v>11</v>
@@ -5877,10 +5832,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="B167" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="C167">
         <v>11</v>
@@ -5888,10 +5843,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="B168" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="C168">
         <v>11</v>
@@ -5899,10 +5854,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="B169" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="C169">
         <v>11</v>
@@ -5910,10 +5865,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="B170" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="C170">
         <v>11</v>
@@ -5921,10 +5876,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="B171" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="C171">
         <v>11</v>
@@ -5932,10 +5887,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B172" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="C172">
         <v>11</v>
@@ -5943,10 +5898,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B173" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="C173">
         <v>11</v>
@@ -5954,10 +5909,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="B174" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="C174">
         <v>11</v>
@@ -5965,10 +5920,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="B175" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="C175">
         <v>11</v>
@@ -5976,10 +5931,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="B176" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="C176">
         <v>11</v>
@@ -5987,10 +5942,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="B177" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="C177">
         <v>11</v>
@@ -5998,10 +5953,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="B178" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="C178">
         <v>11</v>
@@ -6009,10 +5964,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="B179" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="C179">
         <v>11</v>
@@ -6020,10 +5975,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>326</v>
       </c>
       <c r="C180">
         <v>11</v>
@@ -6031,10 +5986,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="B181" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="C181">
         <v>11</v>
@@ -6042,10 +5997,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="B182" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="C182">
         <v>11</v>
@@ -6053,10 +6008,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="B183" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="C183">
         <v>11</v>
@@ -6064,10 +6019,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="B184" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="C184">
         <v>11</v>
@@ -6075,10 +6030,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="B185" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="C185">
         <v>11</v>
@@ -6086,10 +6041,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="B186" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="C186">
         <v>11</v>
@@ -6097,10 +6052,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="B187" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="C187">
         <v>11</v>
@@ -6108,10 +6063,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="B188" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C188">
         <v>11</v>
@@ -6119,10 +6074,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="B189" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="C189">
         <v>11</v>
@@ -6130,10 +6085,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="B190" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="C190">
         <v>11</v>
@@ -6141,10 +6096,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="B191" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="C191">
         <v>11</v>
@@ -6152,10 +6107,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B192" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C192">
         <v>11</v>
@@ -6163,10 +6118,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B193" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C193">
         <v>11</v>
@@ -6174,10 +6129,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="B194" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="C194">
         <v>11</v>
@@ -6185,10 +6140,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="B195" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C195">
         <v>11</v>
@@ -6196,10 +6151,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="B196" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C196">
         <v>11</v>
@@ -6207,10 +6162,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="B197" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C197">
         <v>11</v>
@@ -6218,10 +6173,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="B198" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="C198">
         <v>11</v>
@@ -6229,10 +6184,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="B199" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="C199">
         <v>11</v>
@@ -6240,10 +6195,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="B200" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="C200">
         <v>11</v>
@@ -6251,10 +6206,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="B201" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="C201">
         <v>11</v>
@@ -6262,10 +6217,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="B202" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="C202">
         <v>11</v>
@@ -6273,10 +6228,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="B203" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="C203">
         <v>11</v>
@@ -6284,10 +6239,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="B204" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="C204">
         <v>11</v>
@@ -6295,10 +6250,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="B205" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="C205">
         <v>11</v>
@@ -6306,10 +6261,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="B206" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="C206">
         <v>11</v>
@@ -6317,10 +6272,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="B207" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="C207">
         <v>11</v>
@@ -6328,10 +6283,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="B208" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="C208">
         <v>11</v>
@@ -6339,10 +6294,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="B209" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="C209">
         <v>11</v>
@@ -6350,10 +6305,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="B210" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="C210">
         <v>11</v>
@@ -6361,10 +6316,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="B211" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="C211">
         <v>11</v>
@@ -6372,10 +6327,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="B212" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C212">
         <v>11</v>
@@ -6383,10 +6338,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="B213" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="C213">
         <v>11</v>
@@ -6394,10 +6349,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="B214" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="C214">
         <v>11</v>
@@ -6405,10 +6360,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="B215" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="C215">
         <v>11</v>
@@ -6416,10 +6371,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="B216" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="C216">
         <v>11</v>
@@ -6427,10 +6382,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="B217" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="C217">
         <v>11</v>
@@ -6438,10 +6393,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="B218" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="C218">
         <v>11</v>
@@ -6449,10 +6404,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="B219" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C219">
         <v>11</v>
@@ -6460,10 +6415,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="B220" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="C220">
         <v>11</v>
@@ -6471,10 +6426,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="B221" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="C221">
         <v>11</v>
@@ -6482,10 +6437,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="B222" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="C222">
         <v>11</v>
@@ -6493,10 +6448,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="B223" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="C223">
         <v>11</v>
@@ -6504,10 +6459,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="B224" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="C224">
         <v>11</v>
@@ -6515,10 +6470,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="B225" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="C225">
         <v>11</v>
@@ -6526,10 +6481,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="B226" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="C226">
         <v>11</v>
@@ -6537,10 +6492,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="B227" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="C227">
         <v>11</v>
@@ -6548,10 +6503,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B228" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="C228">
         <v>11</v>
@@ -6559,10 +6514,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="B229" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="C229">
         <v>11</v>
@@ -6570,10 +6525,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="B230" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="C230">
         <v>11</v>
@@ -6581,10 +6536,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="B231" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="C231">
         <v>11</v>
@@ -6592,10 +6547,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="B232" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="C232">
         <v>11</v>
@@ -6603,175 +6558,175 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="B233" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="C233">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="B234" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="C234">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="B235" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="C235">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="B236" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="C236">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B237" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="C237">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="B238" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="C238">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="B239" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="C239">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="B240" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="C240">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="B241" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="C241">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="B242" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="C242">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="B243" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="C243">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="B244" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="C244">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="B245" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="C245">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="B246" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="C246">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="B247" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="C247">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="B248" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="C248">
         <v>12</v>
@@ -6779,10 +6734,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="B249" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="C249">
         <v>12</v>
@@ -6790,10 +6745,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="B250" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="C250">
         <v>12</v>
@@ -6801,10 +6756,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="B251" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="C251">
         <v>12</v>
@@ -6812,10 +6767,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="B252" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="C252">
         <v>12</v>
@@ -6823,10 +6778,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="B253" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="C253">
         <v>12</v>
@@ -6834,10 +6789,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="B254" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="C254">
         <v>12</v>
@@ -6845,10 +6800,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="B255" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="C255">
         <v>12</v>
@@ -6856,10 +6811,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="B256" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C256">
         <v>12</v>
@@ -6867,10 +6822,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="B257" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="C257">
         <v>12</v>
@@ -6878,10 +6833,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="B258" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="C258">
         <v>12</v>
@@ -6889,10 +6844,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="B259" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="C259">
         <v>12</v>
@@ -6900,10 +6855,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="B260" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="C260">
         <v>12</v>
@@ -6911,10 +6866,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="B261" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="C261">
         <v>12</v>
@@ -6922,10 +6877,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="B262" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="C262">
         <v>12</v>
@@ -6933,10 +6888,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="B263" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="C263">
         <v>12</v>
@@ -6944,10 +6899,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="B264" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="C264">
         <v>12</v>
@@ -6955,10 +6910,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="B265" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="C265">
         <v>12</v>
@@ -6966,10 +6921,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="B266" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="C266">
         <v>12</v>
@@ -6977,10 +6932,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="B267" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="C267">
         <v>12</v>
@@ -6988,10 +6943,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="B268" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="C268">
         <v>12</v>
@@ -6999,10 +6954,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="B269" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="C269">
         <v>12</v>
@@ -7010,10 +6965,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="B270" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="C270">
         <v>12</v>
@@ -7021,10 +6976,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="B271" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="C271">
         <v>12</v>
@@ -7032,10 +6987,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="B272" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="C272">
         <v>12</v>
@@ -7043,10 +6998,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="B273" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="C273">
         <v>12</v>
@@ -7054,10 +7009,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="B274" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="C274">
         <v>12</v>
@@ -7065,10 +7020,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="B275" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="C275">
         <v>12</v>
@@ -7076,10 +7031,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="B276" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="C276">
         <v>12</v>
@@ -7087,10 +7042,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="B277" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="C277">
         <v>12</v>
@@ -7098,10 +7053,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="B278" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="C278">
         <v>12</v>
@@ -7109,10 +7064,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="B279" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="C279">
         <v>12</v>
@@ -7120,10 +7075,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="B280" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="C280">
         <v>12</v>
@@ -7131,10 +7086,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="B281" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="C281">
         <v>12</v>
@@ -7142,10 +7097,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="B282" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="C282">
         <v>12</v>
@@ -7153,10 +7108,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="B283" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="C283">
         <v>12</v>
@@ -7164,10 +7119,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="B284" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="C284">
         <v>12</v>
@@ -7175,10 +7130,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="B285" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="C285">
         <v>12</v>
@@ -7186,10 +7141,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="B286" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="C286">
         <v>12</v>
@@ -7197,10 +7152,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="B287" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="C287">
         <v>12</v>
@@ -7208,10 +7163,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="B288" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C288">
         <v>12</v>
@@ -7219,10 +7174,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="B289" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="C289">
         <v>12</v>
@@ -7230,10 +7185,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="B290" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="C290">
         <v>12</v>
@@ -7241,10 +7196,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="B291" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="C291">
         <v>12</v>
@@ -7252,10 +7207,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="B292" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="C292">
         <v>12</v>
@@ -7263,10 +7218,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="B293" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="C293">
         <v>12</v>
@@ -7274,10 +7229,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="B294" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="C294">
         <v>12</v>
@@ -7285,10 +7240,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="B295" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="C295">
         <v>12</v>
@@ -7296,10 +7251,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="B296" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="C296">
         <v>12</v>
@@ -7307,10 +7262,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="B297" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="C297">
         <v>12</v>
@@ -7318,10 +7273,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="B298" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="C298">
         <v>12</v>
@@ -7329,10 +7284,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="B299" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="C299">
         <v>12</v>
@@ -7340,10 +7295,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="B300" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="C300">
         <v>12</v>
@@ -7351,10 +7306,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="B301" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="C301">
         <v>12</v>
@@ -7362,10 +7317,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="B302" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="C302">
         <v>12</v>
@@ -7373,10 +7328,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
       <c r="B303" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="C303">
         <v>12</v>
@@ -7384,10 +7339,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="B304" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="C304">
         <v>12</v>
@@ -7395,10 +7350,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="B305" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="C305">
         <v>12</v>
@@ -7406,10 +7361,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="B306" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="C306">
         <v>12</v>
@@ -7417,10 +7372,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="B307" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="C307">
         <v>12</v>
@@ -7428,10 +7383,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="B308" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="C308">
         <v>12</v>
@@ -7439,10 +7394,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="B309" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="C309">
         <v>12</v>
@@ -7450,10 +7405,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="B310" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="C310">
         <v>12</v>
@@ -7461,10 +7416,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="B311" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="C311">
         <v>12</v>
@@ -7472,10 +7427,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="B312" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="C312">
         <v>12</v>
@@ -7483,10 +7438,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="B313" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="C313">
         <v>12</v>
@@ -7494,10 +7449,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="B314" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="C314">
         <v>12</v>
@@ -7505,10 +7460,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="B315" t="s">
-        <v>564</v>
+        <v>593</v>
       </c>
       <c r="C315">
         <v>12</v>
@@ -7516,10 +7471,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="B316" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="C316">
         <v>12</v>
@@ -7527,10 +7482,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="B317" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="C317">
         <v>12</v>
@@ -7538,10 +7493,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="B318" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="C318">
         <v>12</v>
@@ -7549,10 +7504,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="B319" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="C319">
         <v>12</v>
@@ -7560,10 +7515,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="B320" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="C320">
         <v>12</v>
@@ -7571,10 +7526,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="B321" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="C321">
         <v>12</v>
@@ -7582,10 +7537,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
       <c r="B322" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C322">
         <v>12</v>
@@ -7593,10 +7548,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="B323" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="C323">
         <v>12</v>
@@ -7604,10 +7559,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="B324" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="C324">
         <v>12</v>
@@ -7615,10 +7570,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="B325" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="C325">
         <v>12</v>
@@ -7626,10 +7581,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="B326" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="C326">
         <v>12</v>
@@ -7637,10 +7592,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="B327" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="C327">
         <v>12</v>
@@ -7648,10 +7603,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="B328" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="C328">
         <v>12</v>
@@ -7659,10 +7614,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="B329" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="C329">
         <v>12</v>
@@ -7670,10 +7625,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="B330" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="C330">
         <v>12</v>
@@ -7681,10 +7636,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="B331" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="C331">
         <v>12</v>
@@ -7692,10 +7647,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="B332" t="s">
-        <v>597</v>
+        <v>626</v>
       </c>
       <c r="C332">
         <v>12</v>
@@ -7703,10 +7658,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="B333" t="s">
-        <v>599</v>
+        <v>628</v>
       </c>
       <c r="C333">
         <v>12</v>
@@ -7714,10 +7669,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="B334" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="C334">
         <v>12</v>
@@ -7725,10 +7680,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>604</v>
+        <v>633</v>
       </c>
       <c r="B335" t="s">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="C335">
         <v>12</v>
@@ -7736,10 +7691,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>606</v>
+        <v>635</v>
       </c>
       <c r="B336" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="C336">
         <v>12</v>
@@ -7747,10 +7702,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="B337" t="s">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="C337">
         <v>12</v>
@@ -7758,10 +7713,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="B338" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="C338">
         <v>12</v>
@@ -7769,10 +7724,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>611</v>
+        <v>641</v>
       </c>
       <c r="B339" t="s">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="C339">
         <v>12</v>
@@ -7780,10 +7735,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="B340" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="C340">
         <v>12</v>
@@ -7791,10 +7746,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="B341" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="C341">
         <v>12</v>
@@ -7802,10 +7757,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="B342" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="C342">
         <v>12</v>
@@ -7813,10 +7768,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="B343" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="C343">
         <v>12</v>
@@ -7824,10 +7779,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="B344" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="C344">
         <v>12</v>
@@ -7835,10 +7790,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="B345" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="C345">
         <v>12</v>
@@ -7846,10 +7801,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="B346" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="C346">
         <v>12</v>
@@ -7857,175 +7812,175 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="B347" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="C347">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="B348" t="s">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="C348">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="B349" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="C349">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="B350" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="C350">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="B351" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="C351">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="B352" t="s">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="C352">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="B353" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="C353">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="B354" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="C354">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="B355" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="C355">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="B356" t="s">
-        <v>644</v>
+        <v>673</v>
       </c>
       <c r="C356">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="B357" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="C357">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="B358" t="s">
-        <v>648</v>
+        <v>677</v>
       </c>
       <c r="C358">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>651</v>
+        <v>680</v>
       </c>
       <c r="B359" t="s">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="C359">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>653</v>
+        <v>682</v>
       </c>
       <c r="B360" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="C360">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="B361" t="s">
-        <v>654</v>
+        <v>683</v>
       </c>
       <c r="C361">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="B362" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="C362">
         <v>13</v>
@@ -8033,10 +7988,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>658</v>
+        <v>688</v>
       </c>
       <c r="B363" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
       <c r="C363">
         <v>13</v>
@@ -8044,10 +7999,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="B364" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
       <c r="C364">
         <v>13</v>
@@ -8055,10 +8010,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="B365" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="C365">
         <v>13</v>
@@ -8066,10 +8021,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="B366" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="C366">
         <v>13</v>
@@ -8077,10 +8032,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="B367" t="s">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="C367">
         <v>13</v>
@@ -8088,10 +8043,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="B368" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="C368">
         <v>13</v>
@@ -8099,10 +8054,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="B369" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
       <c r="C369">
         <v>13</v>
@@ -8110,10 +8065,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="B370" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C370">
         <v>13</v>
@@ -8121,10 +8076,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="B371" t="s">
-        <v>673</v>
+        <v>703</v>
       </c>
       <c r="C371">
         <v>13</v>
@@ -8132,10 +8087,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="B372" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="C372">
         <v>13</v>
@@ -8143,10 +8098,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="B373" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="C373">
         <v>13</v>
@@ -8154,10 +8109,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="B374" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="C374">
         <v>13</v>
@@ -8165,10 +8120,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>682</v>
+        <v>712</v>
       </c>
       <c r="B375" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="C375">
         <v>13</v>
@@ -8176,10 +8131,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="B376" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="C376">
         <v>13</v>
@@ -8187,10 +8142,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="B377" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="C377">
         <v>13</v>
@@ -8198,10 +8153,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="B378" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="C378">
         <v>13</v>
@@ -8209,10 +8164,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="B379" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="C379">
         <v>13</v>
@@ -8220,10 +8175,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
       <c r="B380" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="C380">
         <v>13</v>
@@ -8231,10 +8186,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="B381" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="C381">
         <v>13</v>
@@ -8242,10 +8197,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="B382" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="C382">
         <v>13</v>
@@ -8253,10 +8208,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="B383" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="C383">
         <v>13</v>
@@ -8264,10 +8219,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="B384" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="C384">
         <v>13</v>
@@ -8275,10 +8230,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="B385" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="C385">
         <v>13</v>
@@ -8286,10 +8241,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="B386" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
       <c r="C386">
         <v>13</v>
@@ -8297,10 +8252,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="B387" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="C387">
         <v>13</v>
@@ -8308,10 +8263,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="B388" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="C388">
         <v>13</v>
@@ -8319,10 +8274,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="B389" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="C389">
         <v>13</v>
@@ -8330,10 +8285,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="B390" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
       <c r="C390">
         <v>13</v>
@@ -8341,10 +8296,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="B391" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
       <c r="C391">
         <v>13</v>
@@ -8352,10 +8307,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="B392" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="C392">
         <v>13</v>
@@ -8363,10 +8318,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="B393" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="C393">
         <v>13</v>
@@ -8374,10 +8329,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="B394" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="C394">
         <v>13</v>
@@ -8385,10 +8340,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="B395" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="C395">
         <v>13</v>
@@ -8396,10 +8351,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="B396" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="C396">
         <v>13</v>
@@ -8407,10 +8362,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="B397" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="C397">
         <v>13</v>
@@ -8418,10 +8373,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="B398" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="C398">
         <v>13</v>
@@ -8429,10 +8384,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
       <c r="B399" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="C399">
         <v>13</v>
@@ -8440,10 +8395,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>732</v>
+        <v>762</v>
       </c>
       <c r="B400" t="s">
-        <v>731</v>
+        <v>761</v>
       </c>
       <c r="C400">
         <v>13</v>
@@ -8451,10 +8406,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B401" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="C401">
         <v>13</v>
@@ -8462,10 +8417,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="B402" t="s">
-        <v>735</v>
+        <v>765</v>
       </c>
       <c r="C402">
         <v>13</v>
@@ -8473,10 +8428,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="B403" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="C403">
         <v>13</v>
@@ -8484,10 +8439,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="B404" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="C404">
         <v>13</v>
@@ -8495,10 +8450,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>742</v>
+        <v>772</v>
       </c>
       <c r="B405" t="s">
-        <v>741</v>
+        <v>771</v>
       </c>
       <c r="C405">
         <v>13</v>
@@ -8506,10 +8461,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>744</v>
+        <v>774</v>
       </c>
       <c r="B406" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
       <c r="C406">
         <v>13</v>
@@ -8517,10 +8472,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
       <c r="B407" t="s">
-        <v>745</v>
+        <v>775</v>
       </c>
       <c r="C407">
         <v>13</v>
@@ -8528,10 +8483,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="B408" t="s">
-        <v>747</v>
+        <v>777</v>
       </c>
       <c r="C408">
         <v>13</v>
@@ -8539,10 +8494,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="B409" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="C409">
         <v>13</v>
@@ -8550,10 +8505,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>752</v>
+        <v>782</v>
       </c>
       <c r="B410" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="C410">
         <v>13</v>
@@ -8561,10 +8516,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>754</v>
+        <v>784</v>
       </c>
       <c r="B411" t="s">
-        <v>753</v>
+        <v>783</v>
       </c>
       <c r="C411">
         <v>13</v>
@@ -8572,10 +8527,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>756</v>
+        <v>786</v>
       </c>
       <c r="B412" t="s">
-        <v>755</v>
+        <v>785</v>
       </c>
       <c r="C412">
         <v>13</v>
@@ -8583,10 +8538,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="B413" t="s">
-        <v>757</v>
+        <v>787</v>
       </c>
       <c r="C413">
         <v>13</v>
@@ -8594,10 +8549,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="B414" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
       <c r="C414">
         <v>13</v>
@@ -8605,10 +8560,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="B415" t="s">
-        <v>761</v>
+        <v>791</v>
       </c>
       <c r="C415">
         <v>13</v>
@@ -8616,10 +8571,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="B416" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="C416">
         <v>13</v>
@@ -8627,10 +8582,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>766</v>
+        <v>796</v>
       </c>
       <c r="B417" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
       <c r="C417">
         <v>13</v>
@@ -8638,10 +8593,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>768</v>
+        <v>798</v>
       </c>
       <c r="B418" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
       <c r="C418">
         <v>13</v>
@@ -8649,10 +8604,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="B419" t="s">
-        <v>769</v>
+        <v>799</v>
       </c>
       <c r="C419">
         <v>13</v>
@@ -8660,10 +8615,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>772</v>
+        <v>802</v>
       </c>
       <c r="B420" t="s">
-        <v>771</v>
+        <v>801</v>
       </c>
       <c r="C420">
         <v>13</v>
@@ -8671,10 +8626,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="B421" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="C421">
         <v>13</v>
@@ -8682,10 +8637,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
       <c r="B422" t="s">
-        <v>775</v>
+        <v>805</v>
       </c>
       <c r="C422">
         <v>13</v>
@@ -8693,10 +8648,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>778</v>
+        <v>194</v>
       </c>
       <c r="B423" t="s">
-        <v>777</v>
+        <v>807</v>
       </c>
       <c r="C423">
         <v>13</v>
@@ -8704,10 +8659,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>780</v>
+        <v>809</v>
       </c>
       <c r="B424" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
       <c r="C424">
         <v>13</v>
@@ -8715,10 +8670,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>782</v>
+        <v>811</v>
       </c>
       <c r="B425" t="s">
-        <v>781</v>
+        <v>810</v>
       </c>
       <c r="C425">
         <v>13</v>
@@ -8726,10 +8681,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>784</v>
+        <v>813</v>
       </c>
       <c r="B426" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="C426">
         <v>13</v>
@@ -8737,10 +8692,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>786</v>
+        <v>815</v>
       </c>
       <c r="B427" t="s">
-        <v>785</v>
+        <v>814</v>
       </c>
       <c r="C427">
         <v>13</v>
@@ -8748,10 +8703,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>788</v>
+        <v>817</v>
       </c>
       <c r="B428" t="s">
-        <v>787</v>
+        <v>816</v>
       </c>
       <c r="C428">
         <v>13</v>
@@ -8759,10 +8714,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>790</v>
+        <v>819</v>
       </c>
       <c r="B429" t="s">
-        <v>789</v>
+        <v>818</v>
       </c>
       <c r="C429">
         <v>13</v>
@@ -8770,10 +8725,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>792</v>
+        <v>821</v>
       </c>
       <c r="B430" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
       <c r="C430">
         <v>13</v>
@@ -8781,10 +8736,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>794</v>
+        <v>823</v>
       </c>
       <c r="B431" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="C431">
         <v>13</v>
@@ -8792,10 +8747,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>796</v>
+        <v>825</v>
       </c>
       <c r="B432" t="s">
-        <v>795</v>
+        <v>824</v>
       </c>
       <c r="C432">
         <v>13</v>
@@ -8803,10 +8758,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="B433" t="s">
-        <v>797</v>
+        <v>826</v>
       </c>
       <c r="C433">
         <v>13</v>
@@ -8814,10 +8769,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="B434" t="s">
-        <v>799</v>
+        <v>828</v>
       </c>
       <c r="C434">
         <v>13</v>
@@ -8825,10 +8780,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>802</v>
+        <v>831</v>
       </c>
       <c r="B435" t="s">
-        <v>801</v>
+        <v>830</v>
       </c>
       <c r="C435">
         <v>13</v>
@@ -8836,10 +8791,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="B436" t="s">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="C436">
         <v>13</v>
@@ -8847,10 +8802,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="B437" t="s">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="C437">
         <v>13</v>
@@ -8858,10 +8813,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>194</v>
+        <v>837</v>
       </c>
       <c r="B438" t="s">
-        <v>807</v>
+        <v>836</v>
       </c>
       <c r="C438">
         <v>13</v>
@@ -8869,10 +8824,10 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>809</v>
+        <v>839</v>
       </c>
       <c r="B439" t="s">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="C439">
         <v>13</v>
@@ -8880,10 +8835,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="B440" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="C440">
         <v>13</v>
@@ -8891,10 +8846,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>813</v>
+        <v>843</v>
       </c>
       <c r="B441" t="s">
-        <v>812</v>
+        <v>842</v>
       </c>
       <c r="C441">
         <v>13</v>
@@ -8902,10 +8857,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="B442" t="s">
-        <v>814</v>
+        <v>844</v>
       </c>
       <c r="C442">
         <v>13</v>
@@ -8913,10 +8868,10 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>817</v>
+        <v>847</v>
       </c>
       <c r="B443" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
       <c r="C443">
         <v>13</v>
@@ -8924,10 +8879,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="B444" t="s">
-        <v>818</v>
+        <v>848</v>
       </c>
       <c r="C444">
         <v>13</v>
@@ -8935,10 +8890,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="B445" t="s">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="C445">
         <v>13</v>
@@ -8946,10 +8901,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="B446" t="s">
-        <v>822</v>
+        <v>852</v>
       </c>
       <c r="C446">
         <v>13</v>
@@ -8957,10 +8912,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
       <c r="B447" t="s">
-        <v>824</v>
+        <v>854</v>
       </c>
       <c r="C447">
         <v>13</v>
@@ -8968,10 +8923,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>827</v>
+        <v>857</v>
       </c>
       <c r="B448" t="s">
-        <v>826</v>
+        <v>856</v>
       </c>
       <c r="C448">
         <v>13</v>
@@ -8979,10 +8934,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>829</v>
+        <v>485</v>
       </c>
       <c r="B449" t="s">
-        <v>828</v>
+        <v>486</v>
       </c>
       <c r="C449">
         <v>13</v>
@@ -8990,10 +8945,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>831</v>
+        <v>859</v>
       </c>
       <c r="B450" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="C450">
         <v>13</v>
@@ -9001,10 +8956,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="B451" t="s">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="C451">
         <v>13</v>
@@ -9012,10 +8967,10 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>835</v>
+        <v>863</v>
       </c>
       <c r="B452" t="s">
-        <v>834</v>
+        <v>862</v>
       </c>
       <c r="C452">
         <v>13</v>
@@ -9023,175 +8978,175 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="B453" t="s">
-        <v>836</v>
+        <v>864</v>
       </c>
       <c r="C453">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="B454" t="s">
-        <v>838</v>
+        <v>866</v>
       </c>
       <c r="C454">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="B455" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="C455">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>843</v>
+        <v>871</v>
       </c>
       <c r="B456" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="C456">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="B457" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="C457">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>847</v>
+        <v>875</v>
       </c>
       <c r="B458" t="s">
-        <v>846</v>
+        <v>874</v>
       </c>
       <c r="C458">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="B459" t="s">
-        <v>848</v>
+        <v>876</v>
       </c>
       <c r="C459">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>851</v>
+        <v>879</v>
       </c>
       <c r="B460" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="C460">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>853</v>
+        <v>881</v>
       </c>
       <c r="B461" t="s">
-        <v>852</v>
+        <v>880</v>
       </c>
       <c r="C461">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>855</v>
+        <v>883</v>
       </c>
       <c r="B462" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="C462">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>857</v>
+        <v>885</v>
       </c>
       <c r="B463" t="s">
-        <v>856</v>
+        <v>884</v>
       </c>
       <c r="C463">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>485</v>
+        <v>887</v>
       </c>
       <c r="B464" t="s">
-        <v>486</v>
+        <v>886</v>
       </c>
       <c r="C464">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
       <c r="B465" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
       <c r="C465">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>861</v>
+        <v>891</v>
       </c>
       <c r="B466" t="s">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="C466">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="B467" t="s">
-        <v>862</v>
+        <v>892</v>
       </c>
       <c r="C467">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>865</v>
+        <v>895</v>
       </c>
       <c r="B468" t="s">
-        <v>864</v>
+        <v>894</v>
       </c>
       <c r="C468">
         <v>14</v>
@@ -9199,10 +9154,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>867</v>
+        <v>897</v>
       </c>
       <c r="B469" t="s">
-        <v>866</v>
+        <v>896</v>
       </c>
       <c r="C469">
         <v>14</v>
@@ -9210,10 +9165,10 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>869</v>
+        <v>899</v>
       </c>
       <c r="B470" t="s">
-        <v>868</v>
+        <v>898</v>
       </c>
       <c r="C470">
         <v>14</v>
@@ -9221,10 +9176,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>871</v>
+        <v>389</v>
       </c>
       <c r="B471" t="s">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="C471">
         <v>14</v>
@@ -9232,10 +9187,10 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>873</v>
+        <v>389</v>
       </c>
       <c r="B472" t="s">
-        <v>872</v>
+        <v>901</v>
       </c>
       <c r="C472">
         <v>14</v>
@@ -9243,10 +9198,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>875</v>
+        <v>903</v>
       </c>
       <c r="B473" t="s">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="C473">
         <v>14</v>
@@ -9254,10 +9209,10 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
       <c r="B474" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="C474">
         <v>14</v>
@@ -9265,10 +9220,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="B475" t="s">
-        <v>878</v>
+        <v>906</v>
       </c>
       <c r="C475">
         <v>14</v>
@@ -9276,10 +9231,10 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="B476" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
       <c r="C476">
         <v>14</v>
@@ -9287,10 +9242,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="B477" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="C477">
         <v>14</v>
@@ -9298,10 +9253,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="B478" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="C478">
         <v>14</v>
@@ -9309,10 +9264,10 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="B479" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="C479">
         <v>14</v>
@@ -9320,10 +9275,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="B480" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="C480">
         <v>14</v>
@@ -9331,10 +9286,10 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>891</v>
+        <v>919</v>
       </c>
       <c r="B481" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="C481">
         <v>14</v>
@@ -9342,10 +9297,10 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="B482" t="s">
-        <v>892</v>
+        <v>920</v>
       </c>
       <c r="C482">
         <v>14</v>
@@ -9353,10 +9308,10 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>895</v>
+        <v>923</v>
       </c>
       <c r="B483" t="s">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="C483">
         <v>14</v>
@@ -9364,10 +9319,10 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
       <c r="B484" t="s">
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="C484">
         <v>14</v>
@@ -9375,10 +9330,10 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="B485" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
       <c r="C485">
         <v>14</v>
@@ -9386,10 +9341,10 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>389</v>
+        <v>929</v>
       </c>
       <c r="B486" t="s">
-        <v>900</v>
+        <v>928</v>
       </c>
       <c r="C486">
         <v>14</v>
@@ -9397,10 +9352,10 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>389</v>
+        <v>931</v>
       </c>
       <c r="B487" t="s">
-        <v>901</v>
+        <v>930</v>
       </c>
       <c r="C487">
         <v>14</v>
@@ -9408,10 +9363,10 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="B488" t="s">
-        <v>902</v>
+        <v>932</v>
       </c>
       <c r="C488">
         <v>14</v>
@@ -9419,10 +9374,10 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="B489" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="C489">
         <v>14</v>
@@ -9430,10 +9385,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>907</v>
+        <v>936</v>
       </c>
       <c r="B490" t="s">
-        <v>906</v>
+        <v>935</v>
       </c>
       <c r="C490">
         <v>14</v>
@@ -9441,10 +9396,10 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>909</v>
+        <v>938</v>
       </c>
       <c r="B491" t="s">
-        <v>908</v>
+        <v>937</v>
       </c>
       <c r="C491">
         <v>14</v>
@@ -9452,10 +9407,10 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>911</v>
+        <v>940</v>
       </c>
       <c r="B492" t="s">
-        <v>910</v>
+        <v>939</v>
       </c>
       <c r="C492">
         <v>14</v>
@@ -9463,10 +9418,10 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>913</v>
+        <v>942</v>
       </c>
       <c r="B493" t="s">
-        <v>912</v>
+        <v>941</v>
       </c>
       <c r="C493">
         <v>14</v>
@@ -9474,10 +9429,10 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>915</v>
+        <v>944</v>
       </c>
       <c r="B494" t="s">
-        <v>914</v>
+        <v>943</v>
       </c>
       <c r="C494">
         <v>14</v>
@@ -9485,10 +9440,10 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="B495" t="s">
-        <v>916</v>
+        <v>945</v>
       </c>
       <c r="C495">
         <v>14</v>
@@ -9496,10 +9451,10 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>919</v>
+        <v>948</v>
       </c>
       <c r="B496" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="C496">
         <v>14</v>
@@ -9507,10 +9462,10 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="B497" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="C497">
         <v>14</v>
@@ -9518,10 +9473,10 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="B498" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="C498">
         <v>14</v>
@@ -9529,10 +9484,10 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>925</v>
+        <v>954</v>
       </c>
       <c r="B499" t="s">
-        <v>924</v>
+        <v>953</v>
       </c>
       <c r="C499">
         <v>14</v>
@@ -9540,10 +9495,10 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>927</v>
+        <v>954</v>
       </c>
       <c r="B500" t="s">
-        <v>926</v>
+        <v>955</v>
       </c>
       <c r="C500">
         <v>14</v>
@@ -9551,10 +9506,10 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>929</v>
+        <v>957</v>
       </c>
       <c r="B501" t="s">
-        <v>928</v>
+        <v>956</v>
       </c>
       <c r="C501">
         <v>14</v>
@@ -9562,10 +9517,10 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>931</v>
+        <v>959</v>
       </c>
       <c r="B502" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="C502">
         <v>14</v>
@@ -9573,10 +9528,10 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>931</v>
+        <v>961</v>
       </c>
       <c r="B503" t="s">
-        <v>932</v>
+        <v>960</v>
       </c>
       <c r="C503">
         <v>14</v>
@@ -9584,10 +9539,10 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="B504" t="s">
-        <v>933</v>
+        <v>962</v>
       </c>
       <c r="C504">
         <v>14</v>
@@ -9595,10 +9550,10 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>936</v>
+        <v>965</v>
       </c>
       <c r="B505" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
       <c r="C505">
         <v>14</v>
@@ -9606,10 +9561,10 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>938</v>
+        <v>967</v>
       </c>
       <c r="B506" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
       <c r="C506">
         <v>14</v>
@@ -9617,10 +9572,10 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>940</v>
+        <v>969</v>
       </c>
       <c r="B507" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="C507">
         <v>14</v>
@@ -9628,10 +9583,10 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>942</v>
+        <v>971</v>
       </c>
       <c r="B508" t="s">
-        <v>941</v>
+        <v>970</v>
       </c>
       <c r="C508">
         <v>14</v>
@@ -9639,10 +9594,10 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="B509" t="s">
-        <v>943</v>
+        <v>972</v>
       </c>
       <c r="C509">
         <v>14</v>
@@ -9650,10 +9605,10 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="B510" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
       <c r="C510">
         <v>14</v>
@@ -9661,10 +9616,10 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="B511" t="s">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="C511">
         <v>14</v>
@@ -9672,10 +9627,10 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="B512" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="C512">
         <v>14</v>
@@ -9683,10 +9638,10 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="B513" t="s">
-        <v>951</v>
+        <v>980</v>
       </c>
       <c r="C513">
         <v>14</v>
@@ -9694,10 +9649,10 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>954</v>
+        <v>983</v>
       </c>
       <c r="B514" t="s">
-        <v>953</v>
+        <v>982</v>
       </c>
       <c r="C514">
         <v>14</v>
@@ -9705,10 +9660,10 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>954</v>
+        <v>985</v>
       </c>
       <c r="B515" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C515">
         <v>14</v>
@@ -9716,10 +9671,10 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>957</v>
+        <v>987</v>
       </c>
       <c r="B516" t="s">
-        <v>956</v>
+        <v>986</v>
       </c>
       <c r="C516">
         <v>14</v>
@@ -9727,10 +9682,10 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>959</v>
+        <v>989</v>
       </c>
       <c r="B517" t="s">
-        <v>958</v>
+        <v>988</v>
       </c>
       <c r="C517">
         <v>14</v>
@@ -9738,10 +9693,10 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>961</v>
+        <v>991</v>
       </c>
       <c r="B518" t="s">
-        <v>960</v>
+        <v>990</v>
       </c>
       <c r="C518">
         <v>14</v>
@@ -9749,10 +9704,10 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>963</v>
+        <v>993</v>
       </c>
       <c r="B519" t="s">
-        <v>962</v>
+        <v>992</v>
       </c>
       <c r="C519">
         <v>14</v>
@@ -9760,10 +9715,10 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>965</v>
+        <v>995</v>
       </c>
       <c r="B520" t="s">
-        <v>964</v>
+        <v>994</v>
       </c>
       <c r="C520">
         <v>14</v>
@@ -9771,10 +9726,10 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>967</v>
+        <v>997</v>
       </c>
       <c r="B521" t="s">
-        <v>966</v>
+        <v>996</v>
       </c>
       <c r="C521">
         <v>14</v>
@@ -9782,10 +9737,10 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="B522" t="s">
-        <v>968</v>
+        <v>998</v>
       </c>
       <c r="C522">
         <v>14</v>
@@ -9793,10 +9748,10 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>971</v>
+        <v>1001</v>
       </c>
       <c r="B523" t="s">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="C523">
         <v>14</v>
@@ -9804,10 +9759,10 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524" t="s">
-        <v>973</v>
+        <v>1003</v>
       </c>
       <c r="B524" t="s">
-        <v>972</v>
+        <v>1002</v>
       </c>
       <c r="C524">
         <v>14</v>
@@ -9815,10 +9770,10 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525" t="s">
-        <v>975</v>
+        <v>1005</v>
       </c>
       <c r="B525" t="s">
-        <v>974</v>
+        <v>1004</v>
       </c>
       <c r="C525">
         <v>14</v>
@@ -9826,10 +9781,10 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" t="s">
-        <v>977</v>
+        <v>1007</v>
       </c>
       <c r="B526" t="s">
-        <v>976</v>
+        <v>1006</v>
       </c>
       <c r="C526">
         <v>14</v>
@@ -9837,10 +9792,10 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>979</v>
+        <v>1009</v>
       </c>
       <c r="B527" t="s">
-        <v>978</v>
+        <v>1008</v>
       </c>
       <c r="C527">
         <v>14</v>
@@ -9848,10 +9803,10 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>981</v>
+        <v>1011</v>
       </c>
       <c r="B528" t="s">
-        <v>980</v>
+        <v>1010</v>
       </c>
       <c r="C528">
         <v>14</v>
@@ -9859,10 +9814,10 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>983</v>
+        <v>1013</v>
       </c>
       <c r="B529" t="s">
-        <v>982</v>
+        <v>1012</v>
       </c>
       <c r="C529">
         <v>14</v>
@@ -9870,10 +9825,10 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530" t="s">
-        <v>985</v>
+        <v>1015</v>
       </c>
       <c r="B530" t="s">
-        <v>984</v>
+        <v>1014</v>
       </c>
       <c r="C530">
         <v>14</v>
@@ -9881,10 +9836,10 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>987</v>
+        <v>1017</v>
       </c>
       <c r="B531" t="s">
-        <v>986</v>
+        <v>1016</v>
       </c>
       <c r="C531">
         <v>14</v>
@@ -9892,10 +9847,10 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>989</v>
+        <v>1019</v>
       </c>
       <c r="B532" t="s">
-        <v>988</v>
+        <v>1018</v>
       </c>
       <c r="C532">
         <v>14</v>
@@ -9903,10 +9858,10 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>991</v>
+        <v>1021</v>
       </c>
       <c r="B533" t="s">
-        <v>990</v>
+        <v>1020</v>
       </c>
       <c r="C533">
         <v>14</v>
@@ -9914,10 +9869,10 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534" t="s">
-        <v>993</v>
+        <v>1023</v>
       </c>
       <c r="B534" t="s">
-        <v>992</v>
+        <v>1022</v>
       </c>
       <c r="C534">
         <v>14</v>
@@ -9925,10 +9880,10 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>995</v>
+        <v>1025</v>
       </c>
       <c r="B535" t="s">
-        <v>994</v>
+        <v>1024</v>
       </c>
       <c r="C535">
         <v>14</v>
@@ -9936,177 +9891,12 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>997</v>
+        <v>1027</v>
       </c>
       <c r="B536" t="s">
-        <v>996</v>
+        <v>1026</v>
       </c>
       <c r="C536">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3">
-      <c r="A537" t="s">
-        <v>999</v>
-      </c>
-      <c r="B537" t="s">
-        <v>998</v>
-      </c>
-      <c r="C537">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3">
-      <c r="A538" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C538">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3">
-      <c r="A539" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B539" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C539">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3">
-      <c r="A540" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C540">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3">
-      <c r="A541" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C541">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3">
-      <c r="A542" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B542" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C542">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3">
-      <c r="A543" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B543" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C543">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3">
-      <c r="A544" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B544" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C544">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3">
-      <c r="A545" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C545">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3">
-      <c r="A546" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C546">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3">
-      <c r="A547" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C547">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3">
-      <c r="A548" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B548" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C548">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3">
-      <c r="A549" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B549" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C549">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3">
-      <c r="A550" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B550" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C550">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3">
-      <c r="A551" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C551">
         <v>14</v>
       </c>
     </row>
